--- a/Versuch_Messsystemanalyse/Messwerte_MSA2_Benjamin.xlsx
+++ b/Versuch_Messsystemanalyse/Messwerte_MSA2_Benjamin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hammb\Documents\Uni\20_WS_MA\DAT\DataScience\Versuch_Messsystemanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A787F-3D15-4FFE-9800-DE01ECC38398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62652C3B-2233-4195-ABF2-DA723D360AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matlab_Import" sheetId="1" r:id="rId1"/>
@@ -193,21 +193,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +241,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,7 +642,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <f>Messtabelle!C14</f>
         <v>1</v>
       </c>
@@ -759,7 +759,7 @@
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <f>Messtabelle!C14</f>
         <v>1</v>
       </c>
@@ -768,8 +768,8 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>99</f>
-        <v>99</v>
+        <f>101</f>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,9 +785,9 @@
         <f>Messtabelle!G12</f>
         <v>2</v>
       </c>
-      <c r="D8">
-        <f>202</f>
-        <v>202</v>
+      <c r="D8" s="1">
+        <f>198</f>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,9 +803,9 @@
         <f>Messtabelle!G12</f>
         <v>2</v>
       </c>
-      <c r="D9">
-        <f>298</f>
-        <v>298</v>
+      <c r="D9" s="1">
+        <f>299</f>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,9 +821,9 @@
         <f>Messtabelle!G12</f>
         <v>2</v>
       </c>
-      <c r="D10">
-        <f>397</f>
-        <v>397</v>
+      <c r="D10" s="1">
+        <f>402</f>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,9 +839,9 @@
         <f>Messtabelle!G12</f>
         <v>2</v>
       </c>
-      <c r="D11">
-        <f>503</f>
-        <v>503</v>
+      <c r="D11" s="1">
+        <f>500</f>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <f>Messtabelle!$M$11</f>
         <v>Marie</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <f>Messtabelle!C14</f>
         <v>1</v>
       </c>
@@ -939,7 +939,7 @@
         <f>Messtabelle!$M$11</f>
         <v>Marie</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <f>Messtabelle!C14</f>
         <v>1</v>
       </c>
@@ -965,9 +965,9 @@
         <f>Messtabelle!P12</f>
         <v>2</v>
       </c>
-      <c r="D18">
-        <f>198</f>
-        <v>198</v>
+      <c r="D18" s="1">
+        <f>200</f>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,9 +983,9 @@
         <f>Messtabelle!P12</f>
         <v>2</v>
       </c>
-      <c r="D19">
-        <f>201</f>
-        <v>201</v>
+      <c r="D19" s="1">
+        <f>301</f>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,9 +1001,9 @@
         <f>Messtabelle!P12</f>
         <v>2</v>
       </c>
-      <c r="D20">
-        <f>302</f>
-        <v>302</v>
+      <c r="D20" s="1">
+        <f>398</f>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,13 +1019,13 @@
         <f>Messtabelle!P12</f>
         <v>2</v>
       </c>
-      <c r="D21">
-        <f>499</f>
-        <v>499</v>
+      <c r="D21" s="1">
+        <f>498</f>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1065,502 +1065,502 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="7"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
         <v>44147.875</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="F12" s="21"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21">
         <v>44147.895833333299</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="9">
+      <c r="I12" s="21"/>
+      <c r="J12" s="4">
         <v>3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="21">
         <v>44147.916666666701</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="L12" s="21"/>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="21">
         <v>44147.9375</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="O12" s="21"/>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="21">
         <v>44147.958333333299</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="10">
+      <c r="R12" s="21"/>
+      <c r="S12" s="5">
         <v>3</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="22">
         <v>44147.979166666701</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13" t="s">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="13" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="6">
         <v>322</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <v>423</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="13">
         <f>E14-$A14</f>
         <v>101</v>
       </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
         <v>426</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="13">
         <f>H14-$A14</f>
         <v>104</v>
       </c>
-      <c r="J14" s="16">
-        <v>2</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="J14" s="11">
+        <v>2</v>
+      </c>
+      <c r="K14" s="12">
         <v>426</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="13">
         <f>K14-$A14</f>
         <v>104</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="11">
         <v>5</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="12">
         <v>426</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="14">
         <f>N14-$A14</f>
         <v>104</v>
       </c>
-      <c r="P14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12">
         <v>427</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="14">
         <f>Q14-$A14</f>
         <v>105</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="15">
         <v>5</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="16">
         <v>426</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="17">
         <f>T14-$A14</f>
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="6">
         <v>318</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>525</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="13">
         <f>E15-$A15</f>
         <v>207</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="11">
         <v>5</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="12">
         <v>525</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="13">
         <f>H15-$A15</f>
         <v>207</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="11">
         <v>4</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="12">
         <v>525</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="13">
         <f>K15-$A15</f>
         <v>207</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="11">
         <v>3</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="12">
         <v>525</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="14">
         <f>N15-$A15</f>
         <v>207</v>
       </c>
-      <c r="P15" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="17">
+      <c r="P15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="12">
         <v>525</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="14">
         <f>Q15-$A15</f>
         <v>207</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="15">
         <v>4</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="16">
         <v>524</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="17">
         <f>T15-$A15</f>
         <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="6">
         <v>329</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
         <v>651</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="13">
         <f>E16-$A16</f>
         <v>322</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="11">
         <v>3</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="12">
         <v>652</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="13">
         <f>H16-$A16</f>
         <v>323</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="11">
         <v>3</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="12">
         <v>651</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="13">
         <f>K16-$A16</f>
         <v>322</v>
       </c>
-      <c r="M16" s="16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="17">
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
         <v>651</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="14">
         <f>N16-$A16</f>
         <v>322</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="11">
         <v>5</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="12">
         <v>651</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="14">
         <f>Q16-$A16</f>
         <v>322</v>
       </c>
-      <c r="S16" s="20">
-        <v>2</v>
-      </c>
-      <c r="T16" s="21">
+      <c r="S16" s="15">
+        <v>2</v>
+      </c>
+      <c r="T16" s="16">
         <v>651</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="17">
         <f>T16-$A16</f>
         <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="6">
         <v>350</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>5</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>754</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="13">
         <f>E17-$A17</f>
         <v>404</v>
       </c>
-      <c r="G17" s="16">
-        <v>2</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12">
         <v>754</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="13">
         <f>H17-$A17</f>
         <v>404</v>
       </c>
-      <c r="J17" s="16">
-        <v>1</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
         <v>755</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="13">
         <f>K17-$A17</f>
         <v>405</v>
       </c>
-      <c r="M17" s="16">
-        <v>2</v>
-      </c>
-      <c r="N17" s="17">
+      <c r="M17" s="11">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12">
         <v>754</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="14">
         <f>N17-$A17</f>
         <v>404</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="11">
         <v>4</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="12">
         <v>754</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="14">
         <f>Q17-$A17</f>
         <v>404</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="15">
         <v>3</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="16">
         <v>753</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="17">
         <f>T17-$A17</f>
         <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="6">
         <v>502</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="10">
         <v>5</v>
       </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
         <v>1023</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="13">
         <f>E18-$A18</f>
         <v>521</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="11">
         <v>4</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <v>1023</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="13">
         <f>H18-$A18</f>
         <v>521</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="11">
         <v>5</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="12">
         <v>1023</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="13">
         <f>K18-$A18</f>
         <v>521</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="11">
         <v>4</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="12">
         <v>1023</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="14">
         <f>N18-$A18</f>
         <v>521</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="11">
         <v>3</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="12">
         <v>1023</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="14">
         <f>Q18-$A18</f>
         <v>521</v>
       </c>
-      <c r="S18" s="20">
-        <v>1</v>
-      </c>
-      <c r="T18" s="21">
+      <c r="S18" s="15">
+        <v>1</v>
+      </c>
+      <c r="T18" s="16">
         <v>1022</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="17">
         <f>T18-$A18</f>
         <v>520</v>
       </c>

--- a/Versuch_Messsystemanalyse/Messwerte_MSA2_Benjamin.xlsx
+++ b/Versuch_Messsystemanalyse/Messwerte_MSA2_Benjamin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hammb\Documents\Uni\20_WS_MA\DAT\DataScience\Versuch_Messsystemanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agando\Documents\TIM\Untitled Folder\Repo\DataScience\Versuch_Messsystemanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A787F-3D15-4FFE-9800-DE01ECC38398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F820FF16-7F23-4CC6-A0B1-69A565903E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matlab_Import" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Operator</t>
   </si>
@@ -193,21 +192,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +240,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,18 +638,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5546875"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,12 +663,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <f>Messtabelle!C14</f>
         <v>1</v>
       </c>
@@ -682,7 +681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -700,7 +699,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -718,7 +717,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -736,7 +735,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -754,12 +753,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <f>Messtabelle!C14</f>
         <v>1</v>
       </c>
@@ -772,7 +771,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -790,7 +789,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -808,7 +807,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -826,7 +825,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>Messtabelle!$D$11</f>
         <v>Benjamin</v>
@@ -844,115 +843,90 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>Messtabelle!$M$11</f>
-        <v>Marie</v>
-      </c>
-      <c r="B12" s="6">
-        <f>Messtabelle!C14</f>
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f>Messtabelle!M12</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>98</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Messtabelle!$M$11</f>
-        <v>Marie</v>
-      </c>
-      <c r="B13">
-        <f>Messtabelle!C15</f>
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <f>Messtabelle!M12</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>200</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Messtabelle!$M$11</f>
-        <v>Marie</v>
-      </c>
-      <c r="B14">
-        <f>Messtabelle!C16</f>
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <f>Messtabelle!M12</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>301</f>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>Messtabelle!$M$11</f>
-        <v>Marie</v>
-      </c>
-      <c r="B15">
-        <f>Messtabelle!C17</f>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="str">
+        <f>Messtabelle!$D$11</f>
+        <v>Benjamin</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
+        <f>Messtabelle!$D$11</f>
+        <v>Benjamin</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
+        <f>Messtabelle!$D$11</f>
+        <v>Benjamin</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="str">
+        <f>Messtabelle!$D$11</f>
+        <v>Benjamin</v>
+      </c>
+      <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="C15">
-        <f>Messtabelle!M12</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>398</f>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>Messtabelle!$M$11</f>
-        <v>Marie</v>
-      </c>
-      <c r="B16">
-        <f>Messtabelle!C18</f>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="str">
+        <f>Messtabelle!$D$11</f>
+        <v>Benjamin</v>
+      </c>
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16">
-        <f>Messtabelle!M12</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>498</f>
-        <v>498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>Messtabelle!$M$11</f>
         <v>Marie</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <f>Messtabelle!C14</f>
         <v>1</v>
       </c>
       <c r="C17">
-        <f>Messtabelle!P12</f>
-        <v>2</v>
+        <f>Messtabelle!M12</f>
+        <v>1</v>
       </c>
       <c r="D17">
-        <f>100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f>98</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>Messtabelle!$M$11</f>
         <v>Marie</v>
@@ -962,15 +936,15 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <f>Messtabelle!P12</f>
-        <v>2</v>
+        <f>Messtabelle!M12</f>
+        <v>1</v>
       </c>
       <c r="D18">
-        <f>198</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>200</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>Messtabelle!$M$11</f>
         <v>Marie</v>
@@ -980,15 +954,15 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f>Messtabelle!P12</f>
-        <v>2</v>
+        <f>Messtabelle!M12</f>
+        <v>1</v>
       </c>
       <c r="D19">
-        <f>201</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f>301</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>Messtabelle!$M$11</f>
         <v>Marie</v>
@@ -998,15 +972,15 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <f>Messtabelle!P12</f>
-        <v>2</v>
+        <f>Messtabelle!M12</f>
+        <v>1</v>
       </c>
       <c r="D20">
-        <f>302</f>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>398</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>Messtabelle!$M$11</f>
         <v>Marie</v>
@@ -1016,16 +990,163 @@
         <v>5</v>
       </c>
       <c r="C21">
+        <f>Messtabelle!M12</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>498</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>Messtabelle!$M$11</f>
+        <v>Marie</v>
+      </c>
+      <c r="B22" s="1">
+        <f>Messtabelle!C14</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
         <f>Messtabelle!P12</f>
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D22">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>Messtabelle!$M$11</f>
+        <v>Marie</v>
+      </c>
+      <c r="B23">
+        <f>Messtabelle!C15</f>
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f>Messtabelle!P12</f>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f>198</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>Messtabelle!$M$11</f>
+        <v>Marie</v>
+      </c>
+      <c r="B24">
+        <f>Messtabelle!C16</f>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f>Messtabelle!P12</f>
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f>201</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>Messtabelle!$M$11</f>
+        <v>Marie</v>
+      </c>
+      <c r="B25">
+        <f>Messtabelle!C17</f>
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f>Messtabelle!P12</f>
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f>302</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>Messtabelle!$M$11</f>
+        <v>Marie</v>
+      </c>
+      <c r="B26">
+        <f>Messtabelle!C18</f>
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f>Messtabelle!P12</f>
+        <v>2</v>
+      </c>
+      <c r="D26">
         <f>499</f>
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1045,522 +1166,522 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" customWidth="1"/>
-    <col min="8" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="18" width="9.33203125" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" customWidth="1"/>
-    <col min="20" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="1025" width="11.5546875"/>
+    <col min="2" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" customWidth="1"/>
+    <col min="17" max="18" width="9.28515625" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="20" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="7"/>
-      <c r="D11" s="4" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
         <v>44147.875</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="F12" s="21"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21">
         <v>44147.895833333299</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="9">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="21"/>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="21">
         <v>44147.916666666701</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="9">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="L12" s="21"/>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="21">
         <v>44147.9375</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="O12" s="21"/>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="21">
         <v>44147.958333333299</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="10">
-        <v>3</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="R12" s="21"/>
+      <c r="S12" s="5">
+        <v>3</v>
+      </c>
+      <c r="T12" s="22">
         <v>44147.979166666701</v>
       </c>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13" t="s">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="13" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="U13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>322</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <v>423</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="13">
         <f>E14-$A14</f>
         <v>101</v>
       </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
         <v>426</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="13">
         <f>H14-$A14</f>
         <v>104</v>
       </c>
-      <c r="J14" s="16">
-        <v>2</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="J14" s="11">
+        <v>2</v>
+      </c>
+      <c r="K14" s="12">
         <v>426</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="13">
         <f>K14-$A14</f>
         <v>104</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="11">
         <v>5</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="12">
         <v>426</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="14">
         <f>N14-$A14</f>
         <v>104</v>
       </c>
-      <c r="P14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="17">
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12">
         <v>427</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="14">
         <f>Q14-$A14</f>
         <v>105</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="15">
         <v>5</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="16">
         <v>426</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="17">
         <f>T14-$A14</f>
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>318</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
-        <v>3</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12">
         <v>525</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="13">
         <f>E15-$A15</f>
         <v>207</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="11">
         <v>5</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="12">
         <v>525</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="13">
         <f>H15-$A15</f>
         <v>207</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="11">
         <v>4</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="12">
         <v>525</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="13">
         <f>K15-$A15</f>
         <v>207</v>
       </c>
-      <c r="M15" s="16">
-        <v>3</v>
-      </c>
-      <c r="N15" s="17">
+      <c r="M15" s="11">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12">
         <v>525</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="14">
         <f>N15-$A15</f>
         <v>207</v>
       </c>
-      <c r="P15" s="16">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="17">
+      <c r="P15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="12">
         <v>525</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="14">
         <f>Q15-$A15</f>
         <v>207</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="15">
         <v>4</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="16">
         <v>524</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="17">
         <f>T15-$A15</f>
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>329</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15">
-        <v>3</v>
-      </c>
-      <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
         <v>651</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="13">
         <f>E16-$A16</f>
         <v>322</v>
       </c>
-      <c r="G16" s="16">
-        <v>3</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="G16" s="11">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12">
         <v>652</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="13">
         <f>H16-$A16</f>
         <v>323</v>
       </c>
-      <c r="J16" s="16">
-        <v>3</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="12">
         <v>651</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="13">
         <f>K16-$A16</f>
         <v>322</v>
       </c>
-      <c r="M16" s="16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="17">
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
         <v>651</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="14">
         <f>N16-$A16</f>
         <v>322</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="11">
         <v>5</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="12">
         <v>651</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="14">
         <f>Q16-$A16</f>
         <v>322</v>
       </c>
-      <c r="S16" s="20">
-        <v>2</v>
-      </c>
-      <c r="T16" s="21">
+      <c r="S16" s="15">
+        <v>2</v>
+      </c>
+      <c r="T16" s="16">
         <v>651</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="17">
         <f>T16-$A16</f>
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>350</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>5</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>754</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="13">
         <f>E17-$A17</f>
         <v>404</v>
       </c>
-      <c r="G17" s="16">
-        <v>2</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12">
         <v>754</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="13">
         <f>H17-$A17</f>
         <v>404</v>
       </c>
-      <c r="J17" s="16">
-        <v>1</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
         <v>755</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="13">
         <f>K17-$A17</f>
         <v>405</v>
       </c>
-      <c r="M17" s="16">
-        <v>2</v>
-      </c>
-      <c r="N17" s="17">
+      <c r="M17" s="11">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12">
         <v>754</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="14">
         <f>N17-$A17</f>
         <v>404</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="11">
         <v>4</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="12">
         <v>754</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="14">
         <f>Q17-$A17</f>
         <v>404</v>
       </c>
-      <c r="S17" s="20">
-        <v>3</v>
-      </c>
-      <c r="T17" s="21">
+      <c r="S17" s="15">
+        <v>3</v>
+      </c>
+      <c r="T17" s="16">
         <v>753</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="17">
         <f>T17-$A17</f>
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>502</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="10">
         <v>5</v>
       </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
         <v>1023</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="13">
         <f>E18-$A18</f>
         <v>521</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="11">
         <v>4</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <v>1023</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="13">
         <f>H18-$A18</f>
         <v>521</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="11">
         <v>5</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="12">
         <v>1023</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="13">
         <f>K18-$A18</f>
         <v>521</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="11">
         <v>4</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="12">
         <v>1023</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="14">
         <f>N18-$A18</f>
         <v>521</v>
       </c>
-      <c r="P18" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="17">
+      <c r="P18" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="12">
         <v>1023</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="14">
         <f>Q18-$A18</f>
         <v>521</v>
       </c>
-      <c r="S18" s="20">
-        <v>1</v>
-      </c>
-      <c r="T18" s="21">
+      <c r="S18" s="15">
+        <v>1</v>
+      </c>
+      <c r="T18" s="16">
         <v>1022</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="17">
         <f>T18-$A18</f>
         <v>520</v>
       </c>
